--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tnfsf10-Tnfrsf11b.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tnfsf10-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Tnfsf10</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,247 +525,619 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.7952472885497</v>
+        <v>26.80992266666667</v>
       </c>
       <c r="H2">
-        <v>26.7952472885497</v>
+        <v>80.429768</v>
       </c>
       <c r="I2">
-        <v>0.8925279217574541</v>
+        <v>0.8864931668627436</v>
       </c>
       <c r="J2">
-        <v>0.8925279217574541</v>
+        <v>0.8864931668627437</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.65445385857304</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N2">
-        <v>1.65445385857304</v>
+        <v>0.247237</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.04727005612861496</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.04727005612861496</v>
       </c>
       <c r="Q2">
-        <v>44.33150026795984</v>
+        <v>2.209468283446222</v>
       </c>
       <c r="R2">
-        <v>44.33150026795984</v>
+        <v>19.885214551016</v>
       </c>
       <c r="S2">
-        <v>0.8925279217574541</v>
+        <v>0.04190458175523552</v>
       </c>
       <c r="T2">
-        <v>0.8925279217574541</v>
+        <v>0.04190458175523552</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.2583677179408</v>
+        <v>26.80992266666667</v>
       </c>
       <c r="H3">
-        <v>1.2583677179408</v>
+        <v>80.429768</v>
       </c>
       <c r="I3">
-        <v>0.04191520652919348</v>
+        <v>0.8864931668627436</v>
       </c>
       <c r="J3">
-        <v>0.04191520652919348</v>
+        <v>0.8864931668627437</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.65445385857304</v>
+        <v>1.661024</v>
       </c>
       <c r="N3">
-        <v>1.65445385857304</v>
+        <v>4.983072</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9527299438713851</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.952729943871385</v>
       </c>
       <c r="Q3">
-        <v>2.081911326450907</v>
+        <v>44.53192498747733</v>
       </c>
       <c r="R3">
-        <v>2.081911326450907</v>
+        <v>400.787324887296</v>
       </c>
       <c r="S3">
-        <v>0.04191520652919348</v>
+        <v>0.8445885851075081</v>
       </c>
       <c r="T3">
-        <v>0.04191520652919348</v>
+        <v>0.8445885851075081</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.688935925096978</v>
+        <v>1.262185</v>
       </c>
       <c r="H4">
-        <v>0.688935925096978</v>
+        <v>3.786555</v>
       </c>
       <c r="I4">
-        <v>0.0229478960514619</v>
+        <v>0.04173523332119963</v>
       </c>
       <c r="J4">
-        <v>0.0229478960514619</v>
+        <v>0.04173523332119964</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.65445385857304</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N4">
-        <v>1.65445385857304</v>
+        <v>0.247237</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.04727005612861496</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.04727005612861496</v>
       </c>
       <c r="Q4">
-        <v>1.139812699586282</v>
+        <v>0.1040196109483333</v>
       </c>
       <c r="R4">
-        <v>1.139812699586282</v>
+        <v>0.9361764985350001</v>
       </c>
       <c r="S4">
-        <v>0.0229478960514619</v>
+        <v>0.001972826821633948</v>
       </c>
       <c r="T4">
-        <v>0.0229478960514619</v>
+        <v>0.001972826821633948</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.27919587918776</v>
+        <v>1.262185</v>
       </c>
       <c r="H5">
-        <v>1.27919587918776</v>
+        <v>3.786555</v>
       </c>
       <c r="I5">
-        <v>0.04260897566189047</v>
+        <v>0.04173523332119963</v>
       </c>
       <c r="J5">
-        <v>0.04260897566189047</v>
+        <v>0.04173523332119964</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.65445385857304</v>
+        <v>1.661024</v>
       </c>
       <c r="N5">
-        <v>1.65445385857304</v>
+        <v>4.983072</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9527299438713851</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.952729943871385</v>
       </c>
       <c r="Q5">
-        <v>2.116370558192922</v>
+        <v>2.09651957744</v>
       </c>
       <c r="R5">
-        <v>2.116370558192922</v>
+        <v>18.86867619696</v>
       </c>
       <c r="S5">
-        <v>0.04260897566189047</v>
+        <v>0.03976240649956569</v>
       </c>
       <c r="T5">
-        <v>0.04260897566189047</v>
+        <v>0.03976240649956569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.7313983333333334</v>
+      </c>
+      <c r="H6">
+        <v>2.194195</v>
+      </c>
+      <c r="I6">
+        <v>0.02418431536771806</v>
+      </c>
+      <c r="J6">
+        <v>0.02418431536771806</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.08241233333333334</v>
+      </c>
+      <c r="N6">
+        <v>0.247237</v>
+      </c>
+      <c r="O6">
+        <v>0.04727005612861496</v>
+      </c>
+      <c r="P6">
+        <v>0.04727005612861496</v>
+      </c>
+      <c r="Q6">
+        <v>0.06027624324611112</v>
+      </c>
+      <c r="R6">
+        <v>0.542486189215</v>
+      </c>
+      <c r="S6">
+        <v>0.001143193944864158</v>
+      </c>
+      <c r="T6">
+        <v>0.001143193944864158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.7313983333333334</v>
+      </c>
+      <c r="H7">
+        <v>2.194195</v>
+      </c>
+      <c r="I7">
+        <v>0.02418431536771806</v>
+      </c>
+      <c r="J7">
+        <v>0.02418431536771806</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.661024</v>
+      </c>
+      <c r="N7">
+        <v>4.983072</v>
+      </c>
+      <c r="O7">
+        <v>0.9527299438713851</v>
+      </c>
+      <c r="P7">
+        <v>0.952729943871385</v>
+      </c>
+      <c r="Q7">
+        <v>1.214870185226667</v>
+      </c>
+      <c r="R7">
+        <v>10.93383166704</v>
+      </c>
+      <c r="S7">
+        <v>0.0230411214228539</v>
+      </c>
+      <c r="T7">
+        <v>0.0230411214228539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.357302666666667</v>
+      </c>
+      <c r="H8">
+        <v>4.071908000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.04488038083230255</v>
+      </c>
+      <c r="J8">
+        <v>0.04488038083230256</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.08241233333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.247237</v>
+      </c>
+      <c r="O8">
+        <v>0.04727005612861496</v>
+      </c>
+      <c r="P8">
+        <v>0.04727005612861496</v>
+      </c>
+      <c r="Q8">
+        <v>0.1118584797995556</v>
+      </c>
+      <c r="R8">
+        <v>1.006726318196</v>
+      </c>
+      <c r="S8">
+        <v>0.002121498121016557</v>
+      </c>
+      <c r="T8">
+        <v>0.002121498121016557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.357302666666667</v>
+      </c>
+      <c r="H9">
+        <v>4.071908000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.04488038083230255</v>
+      </c>
+      <c r="J9">
+        <v>0.04488038083230256</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.661024</v>
+      </c>
+      <c r="N9">
+        <v>4.983072</v>
+      </c>
+      <c r="O9">
+        <v>0.9527299438713851</v>
+      </c>
+      <c r="P9">
+        <v>0.952729943871385</v>
+      </c>
+      <c r="Q9">
+        <v>2.254512304597334</v>
+      </c>
+      <c r="R9">
+        <v>20.290610741376</v>
+      </c>
+      <c r="S9">
+        <v>0.04275888271128599</v>
+      </c>
+      <c r="T9">
+        <v>0.042758882711286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.08186399999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.245592</v>
+      </c>
+      <c r="I10">
+        <v>0.002706903616036228</v>
+      </c>
+      <c r="J10">
+        <v>0.002706903616036229</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.08241233333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.247237</v>
+      </c>
+      <c r="O10">
+        <v>0.04727005612861496</v>
+      </c>
+      <c r="P10">
+        <v>0.04727005612861496</v>
+      </c>
+      <c r="Q10">
+        <v>0.006746603255999999</v>
+      </c>
+      <c r="R10">
+        <v>0.060719429304</v>
+      </c>
+      <c r="S10">
+        <v>0.0001279554858647833</v>
+      </c>
+      <c r="T10">
+        <v>0.0001279554858647833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.08186399999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.245592</v>
+      </c>
+      <c r="I11">
+        <v>0.002706903616036228</v>
+      </c>
+      <c r="J11">
+        <v>0.002706903616036229</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.661024</v>
+      </c>
+      <c r="N11">
+        <v>4.983072</v>
+      </c>
+      <c r="O11">
+        <v>0.9527299438713851</v>
+      </c>
+      <c r="P11">
+        <v>0.952729943871385</v>
+      </c>
+      <c r="Q11">
+        <v>0.135978068736</v>
+      </c>
+      <c r="R11">
+        <v>1.223802618624</v>
+      </c>
+      <c r="S11">
+        <v>0.002578948130171445</v>
+      </c>
+      <c r="T11">
+        <v>0.002578948130171445</v>
       </c>
     </row>
   </sheetData>
